--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-544668.9912956904</v>
+        <v>-547181.3996770555</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>145.2481701217143</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.7210372967059</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>146.1335396869667</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>206.0285892086332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>55.98090095917274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>125.6503190720621</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>64.77203581859817</v>
       </c>
       <c r="V5" t="n">
-        <v>93.45832099395179</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>238.1802382912859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>21.88617166826039</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>158.5419697125535</v>
+        <v>68.38206665600964</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>51.97102259574324</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>41.84321839248963</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717214</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>211.22848306867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>238.3072970416163</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>127.6210071331251</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>100.988480008087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4467250013051</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>123.9815576456783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>31.39650288673274</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>206.0825446342166</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.97427419833859</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>160.2261899043216</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3430,7 +3430,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>72.97607332171698</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652613</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1133.32083113111</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>764.3583141906979</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1519.920671195231</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>1855.9758899641</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971665</v>
+        <v>2754.986613319169</v>
       </c>
       <c r="V4" t="n">
-        <v>1340.251537902338</v>
+        <v>2500.302125113282</v>
       </c>
       <c r="W4" t="n">
-        <v>1050.834367865378</v>
+        <v>2210.884955076321</v>
       </c>
       <c r="X4" t="n">
-        <v>994.2880032601528</v>
+        <v>1982.895404178304</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.2880032601528</v>
+        <v>1855.9758899641</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3149.8888543296</v>
       </c>
       <c r="V5" t="n">
-        <v>3120.91280869793</v>
+        <v>2818.825966986029</v>
       </c>
       <c r="W5" t="n">
-        <v>2768.144153427816</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.678395166736</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1397.605581930009</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1108.188411893048</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X7" t="n">
-        <v>880.1988609950312</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.406281851501</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1754.744438482647</v>
+        <v>2003.254328486387</v>
       </c>
       <c r="C8" t="n">
-        <v>1385.781921542236</v>
+        <v>1634.291811545976</v>
       </c>
       <c r="D8" t="n">
-        <v>1027.516222935485</v>
+        <v>1276.026112939225</v>
       </c>
       <c r="E8" t="n">
-        <v>641.727970337241</v>
+        <v>890.2378603409809</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X8" t="n">
-        <v>2531.483610522581</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>2141.344278546769</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>436.8275748897429</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="C10" t="n">
-        <v>436.8275748897429</v>
+        <v>572.8146564160734</v>
       </c>
       <c r="D10" t="n">
-        <v>286.7109354774071</v>
+        <v>422.6980170037376</v>
       </c>
       <c r="E10" t="n">
-        <v>286.7109354774071</v>
+        <v>422.6980170037376</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>422.6980170037376</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>254.9951803784566</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>108.7779935963144</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X10" t="n">
-        <v>839.2686188635128</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y10" t="n">
-        <v>618.4760397199826</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5018,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.52355647915</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5288,19 +5288,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1630.526246743624</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.109076706663</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.119525808646</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782979</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038366</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797769</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,13 +5832,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6011,13 +6011,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="29">
@@ -6455,52 +6455,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998291</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2285.118447313269</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2065.51698233621</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1776.441755680408</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1521.757267474521</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1232.340097437561</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1004.350546539543</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,49 +6698,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>120.6800663848338</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>167.5298684234436</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7120,25 +7120,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7312,22 +7312,22 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954151</v>
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,7 +7637,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>209.4348714989687</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.516901359347685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>21.11328141166109</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>169.7287544298644</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819386</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922671</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>14.48117232036719</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922704</v>
+        <v>165.5241382922658</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>13.83034628221174</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>53.40527886851946</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>151.149163315741</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>33.38525518063216</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>194.3131525023044</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>80.44045370237444</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>40.32043864788527</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>20.80009609732298</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>67.31863952450688</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758986</v>
+        <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
@@ -26329,28 +26329,28 @@
         <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058922</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551209</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24006.46637579612</v>
+        <v>24006.46637579601</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>11167.03225179352</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488695</v>
       </c>
       <c r="O4" t="n">
+        <v>19157.89151488698</v>
+      </c>
+      <c r="P4" t="n">
         <v>19157.89151488697</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19157.89151488698</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1231625.508888884</v>
+        <v>-1231916.11605373</v>
       </c>
       <c r="C6" t="n">
-        <v>68550.56762135423</v>
+        <v>68550.56762135398</v>
       </c>
       <c r="D6" t="n">
         <v>68550.5676213541</v>
       </c>
       <c r="E6" t="n">
-        <v>-175379.3789838039</v>
+        <v>-175414.1169092398</v>
       </c>
       <c r="F6" t="n">
-        <v>150033.0828235511</v>
+        <v>149998.3448981156</v>
       </c>
       <c r="G6" t="n">
-        <v>150033.0828235516</v>
+        <v>149998.3448981154</v>
       </c>
       <c r="H6" t="n">
-        <v>150033.0828235514</v>
+        <v>149998.3448981155</v>
       </c>
       <c r="I6" t="n">
-        <v>150033.0828235512</v>
+        <v>149998.3448981161</v>
       </c>
       <c r="J6" t="n">
-        <v>-67498.11957372619</v>
+        <v>-67532.85749916181</v>
       </c>
       <c r="K6" t="n">
-        <v>150033.0828235513</v>
+        <v>149998.3448981156</v>
       </c>
       <c r="L6" t="n">
-        <v>150033.0828235513</v>
+        <v>149998.3448981157</v>
       </c>
       <c r="M6" t="n">
-        <v>64978.05488803948</v>
+        <v>64943.31696260352</v>
       </c>
       <c r="N6" t="n">
-        <v>125088.849843458</v>
+        <v>125088.8498434583</v>
       </c>
       <c r="O6" t="n">
-        <v>144516.56783709</v>
+        <v>144516.5678370898</v>
       </c>
       <c r="P6" t="n">
         <v>144516.5678370898</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,43 +26787,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,31 +26966,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>46.10905411519479</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>92.93433428003272</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>186.2231361403038</v>
       </c>
       <c r="V5" t="n">
-        <v>234.2939374761831</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.95740503254214</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>264.6368266683306</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>248.3340760291579</v>
+        <v>338.4939790857018</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>93.45002542718801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>54.50920201734846</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>485.1127032082907</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107737</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120931</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>153.9723775119818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34138,7 +34138,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,31 +34442,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>342.5164587638463</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663293</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295562</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287598</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>27.13475084531509</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
